--- a/code.xlsx
+++ b/code.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dolanmi/Desktop/bcbb/products/portal/nbp-dbinfo/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dolanmi/Desktop/bcbb/products/portal/nbp-dbinfo-code/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="code" sheetId="1" r:id="rId1"/>
@@ -152,13 +152,13 @@
     <t>Chimera_Molecular.py</t>
   </si>
   <si>
-    <t>https://github.com/niaid/nbp-dbinfo/blob/master/code/cor_to_pdb.f90</t>
+    <t>https://github.com/niaid/nbp-dbinfo-code/blob/master/code/cor_to_pdb.f90</t>
   </si>
   <si>
-    <t>https://github.com/niaid/nbp-dbinfo/blob/master/code/pdb_to_charmm.f90</t>
+    <t>https://github.com/niaid/nbp-dbinfo-code/blob/master/code/pdb_to_charmm.f90</t>
   </si>
   <si>
-    <t>https://github.com/niaid/nbp-dbinfo/blob/master/code/splitpdb1.sh</t>
+    <t>https://github.com/niaid/nbp-dbinfo-code/blob/master/code/splitpdb1.sh</t>
   </si>
 </sst>
 </file>
@@ -612,9 +612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C13" sqref="C13"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -700,7 +700,7 @@
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:26" ht="38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="95" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -754,7 +754,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:26" ht="38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="95" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
@@ -772,7 +772,7 @@
       </c>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:26" ht="38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="76" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
@@ -790,7 +790,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:26" ht="38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="95" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>

--- a/code.xlsx
+++ b/code.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dolanmi/Desktop/bcbb/products/portal/nbp-dbinfo-code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/booirizarryy/Desktop/nbp-dbinfo-code/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="code" sheetId="1" r:id="rId1"/>
@@ -152,20 +152,20 @@
     <t>Chimera_Molecular.py</t>
   </si>
   <si>
-    <t>https://github.com/niaid/nbp-dbinfo-code/blob/master/code/cor_to_pdb.f90</t>
+    <t>https://github.com/niaid/nbp-dbinfo-code/blob/master/cor_to_pdb.f90</t>
   </si>
   <si>
-    <t>https://github.com/niaid/nbp-dbinfo-code/blob/master/code/pdb_to_charmm.f90</t>
+    <t>https://github.com/niaid/nbp-dbinfo-code/blob/master/pdb_to_charmm.f90</t>
   </si>
   <si>
-    <t>https://github.com/niaid/nbp-dbinfo-code/blob/master/code/splitpdb1.sh</t>
+    <t>https://github.com/niaid/nbp-dbinfo-code/blob/master/splitpdb1.sh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -224,6 +224,14 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -294,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -330,6 +338,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -612,9 +623,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -833,7 +844,7 @@
       <c r="B11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="15" t="s">
@@ -851,7 +862,7 @@
       <c r="B12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -869,7 +880,7 @@
       <c r="B13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -4823,9 +4834,9 @@
     <hyperlink ref="C8" r:id="rId7"/>
     <hyperlink ref="C9" r:id="rId8"/>
     <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://github.com/niaid/nbp-dbinfo-code/blob/master/code/cor_to_pdb.f90"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://github.com/niaid/nbp-dbinfo-code/blob/master/code/pdb_to_charmm.f90"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://github.com/niaid/nbp-dbinfo-code/blob/master/code/splitpdb1.sh"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/code.xlsx
+++ b/code.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/booirizarryy/Desktop/nbp-dbinfo-code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dolanmi/Desktop/bcbb/products/portal/nbp-dbinfo-code/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="code" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>https://github.com/niaid/3Dmodel_scripts/blob/master/Blender_PNG_from_X3D.py</t>
-  </si>
-  <si>
-    <t>3D printing, Structural biology</t>
   </si>
   <si>
     <t>Structural biology</t>
@@ -125,9 +122,6 @@
     <t xml:space="preserve">Reads a CHARMM formatted coordinate file and write a PDB formatted coordinate file. </t>
   </si>
   <si>
-    <t>Structural biology, CHARMM, molecular dynamics</t>
-  </si>
-  <si>
     <t>pdb_to_charmm.f90</t>
   </si>
   <si>
@@ -152,13 +146,34 @@
     <t>Chimera_Molecular.py</t>
   </si>
   <si>
-    <t>https://github.com/niaid/nbp-dbinfo-code/blob/master/cor_to_pdb.f90</t>
+    <t>https://github.com/niaid/nbp-dbinfo-code/blob/master/code/cor_to_pdb.f90</t>
   </si>
   <si>
-    <t>https://github.com/niaid/nbp-dbinfo-code/blob/master/pdb_to_charmm.f90</t>
+    <t>https://github.com/niaid/nbp-dbinfo-code/blob/master/code/pdb_to_charmm.f90</t>
   </si>
   <si>
-    <t>https://github.com/niaid/nbp-dbinfo-code/blob/master/splitpdb1.sh</t>
+    <t>https://github.com/niaid/nbp-dbinfo-code/blob/master/code/splitpdb1.sh</t>
+  </si>
+  <si>
+    <t>https://github.com/niaid/primer-id-progs</t>
+  </si>
+  <si>
+    <t>PrimerID pipeline</t>
+  </si>
+  <si>
+    <t>genomics</t>
+  </si>
+  <si>
+    <t>Processes data produced using the PrimerID method for amplicon sequencing to generate viral population frequency tables for nucleotides and amino acids.</t>
+  </si>
+  <si>
+    <t>genomics,pandaseq</t>
+  </si>
+  <si>
+    <t>3D printing,Structural biology</t>
+  </si>
+  <si>
+    <t>Structural biology,CHARMM,molecular dynamics</t>
   </si>
 </sst>
 </file>
@@ -224,13 +239,11 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <sz val="16"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -340,9 +353,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -623,9 +634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -686,217 +697,227 @@
         <v>7</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:26" ht="38" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:26" ht="95" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:26" ht="38" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:26" ht="38" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="D6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:26" ht="95" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:26" ht="76" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:26" ht="95" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:26" ht="95" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="D10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="37" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>41</v>
+      <c r="C11" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:26" ht="55" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:26" ht="37" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="B14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4834,9 +4855,9 @@
     <hyperlink ref="C8" r:id="rId7"/>
     <hyperlink ref="C9" r:id="rId8"/>
     <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10" display="https://github.com/niaid/nbp-dbinfo-code/blob/master/code/cor_to_pdb.f90"/>
-    <hyperlink ref="C12" r:id="rId11" display="https://github.com/niaid/nbp-dbinfo-code/blob/master/code/pdb_to_charmm.f90"/>
-    <hyperlink ref="C13" r:id="rId12" display="https://github.com/niaid/nbp-dbinfo-code/blob/master/code/splitpdb1.sh"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/code.xlsx
+++ b/code.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dolanmi/Desktop/bcbb/products/portal/nbp-dbinfo-code/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BB44022-A596-004F-BF6E-570A28F5A4BE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="code" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -146,15 +147,6 @@
     <t>Chimera_Molecular.py</t>
   </si>
   <si>
-    <t>https://github.com/niaid/nbp-dbinfo-code/blob/master/code/cor_to_pdb.f90</t>
-  </si>
-  <si>
-    <t>https://github.com/niaid/nbp-dbinfo-code/blob/master/code/pdb_to_charmm.f90</t>
-  </si>
-  <si>
-    <t>https://github.com/niaid/nbp-dbinfo-code/blob/master/code/splitpdb1.sh</t>
-  </si>
-  <si>
     <t>https://github.com/niaid/primer-id-progs</t>
   </si>
   <si>
@@ -175,11 +167,20 @@
   <si>
     <t>Structural biology,CHARMM,molecular dynamics</t>
   </si>
+  <si>
+    <t>https://github.com/niaid/nbp-dbinfo-code/blob/master/cor_to_pdb.f90</t>
+  </si>
+  <si>
+    <t>https://github.com/niaid/nbp-dbinfo-code/blob/master/pdb_to_charmm.f90</t>
+  </si>
+  <si>
+    <t>https://github.com/niaid/nbp-dbinfo-code/blob/master/splitpdb1.sh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -315,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -354,6 +355,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -364,6 +366,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -631,12 +636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D12" sqref="D12"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -697,7 +702,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
@@ -715,7 +720,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>8</v>
@@ -733,7 +738,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>8</v>
@@ -751,7 +756,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>8</v>
@@ -769,7 +774,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>8</v>
@@ -787,7 +792,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>8</v>
@@ -805,7 +810,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>8</v>
@@ -823,7 +828,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>8</v>
@@ -841,25 +846,25 @@
         <v>28</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:26" ht="37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="55" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>39</v>
+      <c r="C11" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>8</v>
@@ -873,11 +878,11 @@
       <c r="B12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>40</v>
+      <c r="C12" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>8</v>
@@ -891,8 +896,8 @@
       <c r="B13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>41</v>
+      <c r="C13" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>8</v>
@@ -904,19 +909,19 @@
     </row>
     <row r="14" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="E14" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -4846,18 +4851,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
